--- a/data/biblib.xlsx
+++ b/data/biblib.xlsx
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5200" uniqueCount="1389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5201" uniqueCount="1389">
   <si>
     <t xml:space="preserve">CATEGORY</t>
   </si>
@@ -2100,7 +2100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Кибрик, Александр Е. and Кодзасов, Сандро В. and Оловянникова Ирина П. and Самедов </t>
+      <t xml:space="preserve">Кибрик, Александр Е. and Кодзасов, Сандро В. and Оловянникова, Ирина П. and Самедов, </t>
     </r>
     <r>
       <rPr>
@@ -4803,12 +4803,12 @@
   <dimension ref="A1:AC1024"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A191" activeCellId="16" sqref="A16 A23 A49 A54 A56 A71 A81 A86 A119 A163:A164 A183 A186 A199:A200 A212 A243 A255:A256 A191"/>
+      <selection pane="bottomLeft" activeCell="A262" activeCellId="0" sqref="A262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.5"/>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="AA128" s="11"/>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
         <v>22</v>
       </c>
@@ -13615,7 +13615,9 @@
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="16"/>
+      <c r="A262" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="B262" s="6" t="s">
         <v>1170</v>
       </c>
@@ -16035,10 +16037,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="16" sqref="A16 A23 A49 A54 A56 A71 A81 A86 A119 A163:A164 A183 A186 A199:A200 A212 A243 A255:A256 B3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.38"/>
